--- a/hsk4_vocabulary.xlsx
+++ b/hsk4_vocabulary.xlsx
@@ -20764,7 +20764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21296,7 +21296,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -21591,6 +21591,106 @@
       <c r="D41" t="inlineStr">
         <is>
           <t>belt</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>852</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>tígōng</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>provide</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>458</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>精神</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>jīngshén</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>spirit</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>651</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>啤酒</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>píjiǔ</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Beer</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>446</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>解决</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>jiějué</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Solve</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>414</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>简单</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>jiǎndān</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>simple</t>
         </is>
       </c>
     </row>
@@ -21637,101 +21737,101 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>514</v>
+        <v>852</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>宽</t>
+          <t>提供</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>kuān</t>
+          <t>tígōng</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>provide</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>315</v>
+        <v>458</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>逛</t>
+          <t>精神</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>guàng</t>
+          <t>jīngshén</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stroll</t>
+          <t>spirit</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>893</v>
+        <v>651</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>为</t>
+          <t>啤酒</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>wèi</t>
+          <t>píjiǔ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>Beer</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>比</t>
+          <t>解决</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bǐ</t>
+          <t>jiějué</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>compare</t>
+          <t>Solve</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>144</v>
+        <v>414</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>带</t>
+          <t>简单</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>dài</t>
+          <t>jiǎndān</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>belt</t>
+          <t>simple</t>
         </is>
       </c>
     </row>

--- a/hsk4_vocabulary.xlsx
+++ b/hsk4_vocabulary.xlsx
@@ -20764,7 +20764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21691,6 +21691,106 @@
       <c r="D46" t="inlineStr">
         <is>
           <t>simple</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>463</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>经历</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>jīnglì</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>真</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>zhēn</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>really</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>889</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>网球</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>wǎngqiú</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tennis</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>195</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>dòngzuò</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>785</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>手表</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>shǒubiǎo</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wrist Watch</t>
         </is>
       </c>
     </row>
@@ -21737,101 +21837,101 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>852</v>
+        <v>463</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>提供</t>
+          <t>经历</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tígōng</t>
+          <t>jīnglì</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>experience</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>458</v>
+        <v>1119</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>精神</t>
+          <t>真</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jīngshén</t>
+          <t>zhēn</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>spirit</t>
+          <t>really</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>651</v>
+        <v>889</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>啤酒</t>
+          <t>网球</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>píjiǔ</t>
+          <t>wǎngqiú</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Tennis</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>解决</t>
+          <t>动作</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jiějué</t>
+          <t>dòngzuò</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Solve</t>
+          <t>action</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>414</v>
+        <v>785</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>简单</t>
+          <t>手表</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>jiǎndān</t>
+          <t>shǒubiǎo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>Wrist Watch</t>
         </is>
       </c>
     </row>

--- a/hsk4_vocabulary.xlsx
+++ b/hsk4_vocabulary.xlsx
@@ -20764,7 +20764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21791,6 +21791,106 @@
       <c r="D51" t="inlineStr">
         <is>
           <t>Wrist Watch</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>183</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>电视</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>diànshì</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>television</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>801</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>shùzì</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>126</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>聪明</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>cōngming</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>clever</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>501</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>刻</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>kè</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>moment</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>962</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>辛苦</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>xīnkǔ</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>hard</t>
         </is>
       </c>
     </row>
@@ -21837,101 +21937,101 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>463</v>
+        <v>183</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>经历</t>
+          <t>电视</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jīnglì</t>
+          <t>diànshì</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>television</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1119</v>
+        <v>801</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>真</t>
+          <t>数字</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>zhēn</t>
+          <t>shùzì</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>really</t>
+          <t>number</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>889</v>
+        <v>126</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>网球</t>
+          <t>聪明</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>wǎngqiú</t>
+          <t>cōngming</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tennis</t>
+          <t>clever</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>195</v>
+        <v>501</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>动作</t>
+          <t>刻</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dòngzuò</t>
+          <t>kè</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>moment</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>785</v>
+        <v>962</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>手表</t>
+          <t>辛苦</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>shǒubiǎo</t>
+          <t>xīnkǔ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wrist Watch</t>
+          <t>hard</t>
         </is>
       </c>
     </row>

--- a/hsk4_vocabulary.xlsx
+++ b/hsk4_vocabulary.xlsx
@@ -20764,7 +20764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21891,6 +21891,106 @@
       <c r="D56" t="inlineStr">
         <is>
           <t>hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>音乐</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>yīnyuè</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>405</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>jìxù</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>yuán</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>element, Yuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>828</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>所以</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>suǒyǐ</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>therefore</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>200</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>短</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>duǎn</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>short</t>
         </is>
       </c>
     </row>
@@ -21937,101 +22037,101 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>183</v>
+        <v>1042</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>电视</t>
+          <t>音乐</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>diànshì</t>
+          <t>yīnyuè</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>television</t>
+          <t>Music</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>801</v>
+        <v>405</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>数字</t>
+          <t>继续</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>shùzì</t>
+          <t>jìxù</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Continue</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>126</v>
+        <v>1078</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>聪明</t>
+          <t>元</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>cōngming</t>
+          <t>yuán</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>clever</t>
+          <t>element, Yuan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>刻</t>
+          <t>所以</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kè</t>
+          <t>suǒyǐ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>moment</t>
+          <t>therefore</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>962</v>
+        <v>200</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>辛苦</t>
+          <t>短</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>xīnkǔ</t>
+          <t>duǎn</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>short</t>
         </is>
       </c>
     </row>

--- a/hsk4_vocabulary.xlsx
+++ b/hsk4_vocabulary.xlsx
@@ -68,6 +68,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -20764,7 +20832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21991,6 +22059,106 @@
       <c r="D61" t="inlineStr">
         <is>
           <t>short</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>710</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>然而</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>rán'ér</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>292</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>工资</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>gōngzī</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>wages</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>848</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>疼</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>téng</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>hurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>责任</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>zérèn</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>responsibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>597</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>米</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>mǐ</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>rice</t>
         </is>
       </c>
     </row>
@@ -22037,101 +22205,101 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1042</v>
+        <v>710</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>音乐</t>
+          <t>然而</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yīnyuè</t>
+          <t>rán'ér</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>however</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>405</v>
+        <v>292</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>继续</t>
+          <t>工资</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jìxù</t>
+          <t>gōngzī</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Continue</t>
+          <t>wages</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1078</v>
+        <v>848</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>疼</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>yuán</t>
+          <t>téng</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>element, Yuan</t>
+          <t>hurt</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>828</v>
+        <v>1101</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>所以</t>
+          <t>责任</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>suǒyǐ</t>
+          <t>zérèn</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>therefore</t>
+          <t>responsibility</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>200</v>
+        <v>597</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>短</t>
+          <t>米</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>duǎn</t>
+          <t>mǐ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>rice</t>
         </is>
       </c>
     </row>
